--- a/Data/EC/NIT-9016692100.xlsx
+++ b/Data/EC/NIT-9016692100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BD94C5-A194-4EF1-8A71-1D196573EC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BA073B-0DB8-4365-BAB7-9D38428588DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8FC3AA88-E76A-4E9D-B3DF-2AE730AA00AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C026D15-07F0-40FA-8B77-7CFA7FA1A4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,63 +65,102 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143331660</t>
+  </si>
+  <si>
+    <t>CARMEN JULIANA BELTRAN BEDOYA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1143350848</t>
+  </si>
+  <si>
+    <t>LILIBETH LICONA CHIQUILLO</t>
+  </si>
+  <si>
+    <t>1014205331</t>
+  </si>
+  <si>
+    <t>MILEIDYS PAJARO GARCES</t>
+  </si>
+  <si>
+    <t>1143340357</t>
+  </si>
+  <si>
+    <t>WILIAN OVIEDO MENDOZA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1143369813</t>
+  </si>
+  <si>
+    <t>LIZ KARIME ROMERO PALOMINO</t>
+  </si>
+  <si>
+    <t>1128059061</t>
+  </si>
+  <si>
+    <t>CINDY PAOLA PARRA PERNA</t>
+  </si>
+  <si>
+    <t>1143352257</t>
+  </si>
+  <si>
+    <t>YUBENIS HERNANDEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1043640354</t>
+  </si>
+  <si>
+    <t>DANIELA SOFIA MENDOZA CHAVEZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1143384006</t>
+  </si>
+  <si>
+    <t>AGUSTIN WILMAN NAAR PEREZ</t>
+  </si>
+  <si>
+    <t>1049931644</t>
+  </si>
+  <si>
+    <t>KATIA PAOLA PINTO PEREZ</t>
+  </si>
+  <si>
+    <t>1032376335</t>
+  </si>
+  <si>
+    <t>ANDRES RICARDO OSORIO MALPICA</t>
+  </si>
+  <si>
     <t>1193032566</t>
   </si>
   <si>
     <t>ENILDA ISABEL MARRUGO ELLES</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1128059061</t>
-  </si>
-  <si>
-    <t>CINDY PAOLA PARRA PERNA</t>
-  </si>
-  <si>
-    <t>1143331660</t>
-  </si>
-  <si>
-    <t>CARMEN JULIANA BELTRAN BEDOYA</t>
-  </si>
-  <si>
-    <t>1143369813</t>
-  </si>
-  <si>
-    <t>LIZ KARIME ROMERO PALOMINO</t>
-  </si>
-  <si>
-    <t>1049931644</t>
-  </si>
-  <si>
-    <t>KATIA PAOLA PINTO PEREZ</t>
-  </si>
-  <si>
-    <t>1032376335</t>
-  </si>
-  <si>
-    <t>ANDRES RICARDO OSORIO MALPICA</t>
-  </si>
-  <si>
-    <t>1143384006</t>
-  </si>
-  <si>
-    <t>AGUSTIN WILMAN NAAR PEREZ</t>
-  </si>
-  <si>
-    <t>1014205331</t>
-  </si>
-  <si>
-    <t>MILEIDYS PAJARO GARCES</t>
-  </si>
-  <si>
-    <t>1143352257</t>
-  </si>
-  <si>
-    <t>YUBENIS HERNANDEZ RODRIGUEZ</t>
-  </si>
-  <si>
     <t>PPT</t>
   </si>
   <si>
@@ -129,12 +168,6 @@
   </si>
   <si>
     <t>NETHYARI ALEJANDRA GUZMAN HERRERA</t>
-  </si>
-  <si>
-    <t>1143350848</t>
-  </si>
-  <si>
-    <t>LILIBETH LICONA CHIQUILLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B029B2EF-8709-B76B-ECE5-2CFDEAB0B781}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28988922-8C15-4F50-4806-C68B00DD1E0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512BA654-BB28-4806-BB13-ABD750571265}">
-  <dimension ref="B2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4174579C-4588-495C-9353-409FAF703281}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -924,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -969,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1001,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>796069</v>
+        <v>1965065</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1017,17 +1050,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1054,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1077,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>2500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>100000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>2500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>100000</v>
+        <v>98622</v>
       </c>
       <c r="G18" s="18">
-        <v>2500000</v>
+        <v>2465540</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1137,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>91600</v>
+        <v>98622</v>
       </c>
       <c r="G19" s="18">
-        <v>2290000</v>
+        <v>2465540</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1160,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>88000</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1183,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1206,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>76207</v>
+        <v>13867</v>
       </c>
       <c r="G22" s="18">
-        <v>1905190</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1229,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>91600</v>
       </c>
       <c r="G23" s="18">
-        <v>1423500</v>
+        <v>2290000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1252,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>91600</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>2290000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1272,13 +1305,13 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
@@ -1294,56 +1327,493 @@
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="F35" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="F36" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="24">
-        <v>98622</v>
-      </c>
-      <c r="G26" s="24">
-        <v>2465540</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="F37" s="18">
+        <v>76207</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1905190</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="18">
+        <v>76207</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1905190</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
+      <c r="D44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
+      <c r="D45" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E45" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016692100.xlsx
+++ b/Data/EC/NIT-9016692100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BA073B-0DB8-4365-BAB7-9D38428588DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63614D47-ED88-474F-9204-50F9655AE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C026D15-07F0-40FA-8B77-7CFA7FA1A4DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D2C14BA-462C-472E-AED1-C59A28B88A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,103 +71,76 @@
     <t>CARMEN JULIANA BELTRAN BEDOYA</t>
   </si>
   <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1143350848</t>
+  </si>
+  <si>
+    <t>LILIBETH LICONA CHIQUILLO</t>
+  </si>
+  <si>
+    <t>1014205331</t>
+  </si>
+  <si>
+    <t>MILEIDYS PAJARO GARCES</t>
+  </si>
+  <si>
+    <t>1143369813</t>
+  </si>
+  <si>
+    <t>LIZ KARIME ROMERO PALOMINO</t>
+  </si>
+  <si>
+    <t>1128059061</t>
+  </si>
+  <si>
+    <t>CINDY PAOLA PARRA PERNA</t>
+  </si>
+  <si>
+    <t>1143352257</t>
+  </si>
+  <si>
+    <t>YUBENIS HERNANDEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1143384006</t>
+  </si>
+  <si>
+    <t>AGUSTIN WILMAN NAAR PEREZ</t>
+  </si>
+  <si>
+    <t>1049931644</t>
+  </si>
+  <si>
+    <t>KATIA PAOLA PINTO PEREZ</t>
+  </si>
+  <si>
+    <t>1032376335</t>
+  </si>
+  <si>
+    <t>ANDRES RICARDO OSORIO MALPICA</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>5488453</t>
+  </si>
+  <si>
+    <t>NETHYARI ALEJANDRA GUZMAN HERRERA</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1143350848</t>
-  </si>
-  <si>
-    <t>LILIBETH LICONA CHIQUILLO</t>
-  </si>
-  <si>
-    <t>1014205331</t>
-  </si>
-  <si>
-    <t>MILEIDYS PAJARO GARCES</t>
-  </si>
-  <si>
-    <t>1143340357</t>
-  </si>
-  <si>
-    <t>WILIAN OVIEDO MENDOZA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1143369813</t>
-  </si>
-  <si>
-    <t>LIZ KARIME ROMERO PALOMINO</t>
-  </si>
-  <si>
-    <t>1128059061</t>
-  </si>
-  <si>
-    <t>CINDY PAOLA PARRA PERNA</t>
-  </si>
-  <si>
-    <t>1143352257</t>
-  </si>
-  <si>
-    <t>YUBENIS HERNANDEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1043640354</t>
-  </si>
-  <si>
-    <t>DANIELA SOFIA MENDOZA CHAVEZ</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>1143384006</t>
-  </si>
-  <si>
-    <t>AGUSTIN WILMAN NAAR PEREZ</t>
-  </si>
-  <si>
-    <t>1049931644</t>
-  </si>
-  <si>
-    <t>KATIA PAOLA PINTO PEREZ</t>
-  </si>
-  <si>
-    <t>1032376335</t>
-  </si>
-  <si>
-    <t>ANDRES RICARDO OSORIO MALPICA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1193032566</t>
   </si>
   <si>
     <t>ENILDA ISABEL MARRUGO ELLES</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5488453</t>
-  </si>
-  <si>
-    <t>NETHYARI ALEJANDRA GUZMAN HERRERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28988922-8C15-4F50-4806-C68B00DD1E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93ADA99-810C-E790-9FC0-84D9B0270128}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4174579C-4588-495C-9353-409FAF703281}">
-  <dimension ref="B2:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E57EF5-832E-4762-913B-A1B967294FBC}">
+  <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -957,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1034,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1965065</v>
+        <v>2274327</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1087,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1124,19 +1097,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>100000</v>
+        <v>98622</v>
       </c>
       <c r="G17" s="18">
-        <v>2500000</v>
+        <v>2465540</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,19 +1120,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>98622</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>2465540</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>98622</v>
+        <v>91600</v>
       </c>
       <c r="G19" s="18">
-        <v>2465540</v>
+        <v>2290000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1193,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
@@ -1216,13 +1189,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1239,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>13867</v>
+        <v>76207</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>1905190</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1262,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>91600</v>
+        <v>88000</v>
       </c>
       <c r="G23" s="18">
-        <v>2290000</v>
+        <v>2200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1285,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>91600</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>2290000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,13 +1278,13 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
@@ -1331,19 +1304,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>100000</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>2500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1354,19 +1327,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>98622</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>2465540</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1377,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1400,19 +1373,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>91600</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>2290000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1423,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1446,19 +1419,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1469,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>76207</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1905190</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1492,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>88000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>2200000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1521,13 +1494,13 @@
         <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1535,22 +1508,22 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1561,19 +1534,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>100000</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>2500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1584,19 +1557,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>76207</v>
+        <v>98622</v>
       </c>
       <c r="G37" s="18">
-        <v>1905190</v>
+        <v>2465540</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1607,19 +1580,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
-        <v>76207</v>
+        <v>56940</v>
       </c>
       <c r="G38" s="18">
-        <v>1905190</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1630,19 +1603,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
-        <v>88000</v>
+        <v>91600</v>
       </c>
       <c r="G39" s="18">
-        <v>2200000</v>
+        <v>2290000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1653,19 +1626,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>88000</v>
+        <v>56940</v>
       </c>
       <c r="G40" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1676,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
         <v>56940</v>
@@ -1699,19 +1672,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>76207</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1905190</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1722,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
-        <v>56940</v>
+        <v>88000</v>
       </c>
       <c r="G43" s="18">
-        <v>1423500</v>
+        <v>2200000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1742,16 +1715,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18">
         <v>56940</v>
@@ -1764,56 +1737,79 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="24">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="18">
         <v>56940</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="18">
         <v>1423500</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G46" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C51" s="32"/>
       <c r="H51" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="H52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
